--- a/documents/카테고리ID.xlsx
+++ b/documents/카테고리ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\AndroidStudioProjects\newitem_alarm\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8117F87-2744-4A08-A45C-A1BEEC085270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474CD6CC-7A8A-44A3-935E-2BAC720D1163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" xr2:uid="{829CD65E-0341-45A5-9BDD-C16D6A5101D5}"/>
   </bookViews>
@@ -27,63 +27,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
+    <t>라면</t>
+  </si>
+  <si>
+    <t>햄버거</t>
+  </si>
+  <si>
+    <t>피자</t>
+  </si>
+  <si>
+    <t>치킨</t>
+  </si>
+  <si>
+    <t>즉석/냉동</t>
+  </si>
+  <si>
+    <t>아이스크림</t>
+  </si>
+  <si>
+    <t>과자</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonthDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>젤리/초콜릿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>빵집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카페/디저트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주류</t>
-  </si>
-  <si>
-    <t>라면</t>
-  </si>
-  <si>
-    <t>햄버거</t>
-  </si>
-  <si>
-    <t>피자</t>
-  </si>
-  <si>
-    <t>치킨</t>
-  </si>
-  <si>
-    <t>즉석/냉동</t>
-  </si>
-  <si>
-    <t>아이스크림</t>
-  </si>
-  <si>
-    <t>과자</t>
-  </si>
-  <si>
-    <t>CategoryId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YearMonthDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹TV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +462,7 @@
   <dimension ref="E4:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,19 +476,19 @@
   <sheetData>
     <row r="4" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="5:10" x14ac:dyDescent="0.3">
@@ -491,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.3">
@@ -505,13 +510,13 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.3">
@@ -519,13 +524,13 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.3">
@@ -533,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.3">
@@ -541,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.3">
@@ -549,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.3">
@@ -557,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.3">
@@ -565,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.3">
@@ -573,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.3">
@@ -581,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.3">
@@ -589,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.3">
@@ -597,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
